--- a/Technology/Software/Unity Software.xlsx
+++ b/Technology/Software/Unity Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63391FF1-4F9D-944C-BF88-96E2AD34B643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A7ED9D-6CAA-8446-858A-CB04CBE34197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1391,7 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1631,9 +1631,6 @@
     <xf numFmtId="164" fontId="12" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="10" fontId="12" fillId="12" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1715,7 +1712,13 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1754,6 +1757,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1771,7 +1775,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1783,6 +1787,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1909,12 +1914,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>50.08</v>
-    <v>21.22</v>
-    <v>2.633</v>
-    <v>-0.82</v>
-    <v>-3.1466000000000001E-2</v>
-    <v>-3.06</v>
-    <v>-0.121236</v>
+    <v>22.2</v>
+    <v>2.5470000000000002</v>
+    <v>3.0150000000000001</v>
+    <v>0.10216900000000001</v>
+    <v>0.08</v>
+    <v>2.4599999999999999E-3</v>
     <v>USD</v>
     <v>Unity Software Inc. (Unity) provides a platform for content creators. The Company's platform provides real-time three-dimensional (RT3D) development tools and services for creating interactive, two-dimensional (2D), 3D, augmented and virtual reality experiences across all major platforms and device endpoints. The Company has two complementary and interconnected solutions: Create Solutions and Grow Solutions. Create Solutions has a set of tools for the development of real-time 2D and 3D content. It is designed with creators in mind, the tools are used by artists, designers, and developers across a range of industries ranging from games to aerospace, film to retail, medical to manufacturing, and others. Grow Solutions offer customers to engage their user base and monetize their content from 2D puzzle games to multiplayer, multi-platform games, or other 3D interactive content. It serves industries, including gaming, film, retail, automotive, architecture, engineering, and construction.</v>
     <v>7703</v>
@@ -1922,24 +1927,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>30 - 3Rd Street, SAN FRANCISCO, CA, 94103 US</v>
-    <v>27.18</v>
+    <v>32.700000000000003</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45240.041659536721</v>
+    <v>45262.04126600625</v>
     <v>0</v>
-    <v>25.17</v>
-    <v>9678462252</v>
+    <v>29.254999999999999</v>
+    <v>12358220000</v>
     <v>Unity Software Inc</v>
     <v>Unity Software Inc</v>
-    <v>27</v>
-    <v>26.06</v>
-    <v>25.24</v>
-    <v>22.18</v>
-    <v>383457300</v>
+    <v>29.35</v>
+    <v>29.51</v>
+    <v>32.524999999999999</v>
+    <v>32.6</v>
+    <v>380019000</v>
     <v>U</v>
     <v>Unity Software Inc (XNYS:U)</v>
-    <v>25064373</v>
-    <v>9871463</v>
+    <v>17963338</v>
+    <v>12957825</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2101,9 +2106,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2547,7 +2552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
@@ -9368,8 +9373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F077263A-285C-CF41-AA8F-B2350D5A8C18}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9377,48 +9382,48 @@
     <col min="1" max="19" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="120" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="e" vm="1">
+    <row r="1" spans="1:16" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="118" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-    </row>
-    <row r="2" spans="1:16" s="120" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+    </row>
+    <row r="2" spans="1:16" s="119" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>9678462252</v>
+        <v>12358220000</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>195</v>
@@ -9438,15 +9443,15 @@
         <v>197</v>
       </c>
       <c r="G3" s="44">
-        <f>AVERAGE(Financials!B129:G129)</f>
-        <v>0.11430379010949462</v>
+        <f>AVERAGE(Financials!G129,Financials!J129,Financials!K129)</f>
+        <v>1.6070055488801211E-2</v>
       </c>
       <c r="H3" s="43" t="s">
         <v>198</v>
       </c>
       <c r="I3" s="45">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>12970366440.042248</v>
+        <v>11784886805.239752</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>199</v>
@@ -9459,10 +9464,10 @@
         <v>200</v>
       </c>
       <c r="M3" s="49"/>
-      <c r="N3" s="121" t="s">
+      <c r="N3" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="O3" s="122"/>
+      <c r="O3" s="121"/>
       <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -9489,36 +9494,36 @@
       </c>
       <c r="G4" s="54">
         <f>A5*(1+(5*G3))</f>
-        <v>602610413.67576754</v>
+        <v>410553632.08399379</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>205</v>
       </c>
       <c r="I4" s="55">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>10969495424.346024</v>
+        <v>9926119320.5285244</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>206</v>
       </c>
       <c r="K4" s="56" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-3.1466000000000001E-2</v>
+        <v>0.10216900000000001</v>
       </c>
       <c r="L4" s="57" t="s">
         <v>207</v>
       </c>
       <c r="M4" s="49"/>
-      <c r="N4" s="123" t="s">
+      <c r="N4" s="122" t="s">
         <v>208</v>
       </c>
-      <c r="O4" s="124"/>
+      <c r="O4" s="123"/>
       <c r="P4" s="49"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>383457300</v>
+        <v>380019000</v>
       </c>
       <c r="B5" s="51" t="s">
         <v>209</v>
@@ -9546,14 +9551,14 @@
       </c>
       <c r="I5" s="55">
         <f>I4+G5-G6</f>
-        <v>9637685424.3460236</v>
+        <v>8594309320.5285244</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>213</v>
       </c>
       <c r="K5" s="59" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>25.24</v>
+        <v>32.524999999999999</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>214</v>
@@ -9571,7 +9576,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="63">
         <f>O20/F10</f>
-        <v>4.4662954554683898</v>
+        <v>5.7029164743885552</v>
       </c>
       <c r="B6" s="51" t="s">
         <v>216</v>
@@ -9599,14 +9604,14 @@
       </c>
       <c r="I6" s="56">
         <f>N25</f>
-        <v>7.2889934557467811E-2</v>
+        <v>7.7707336970247912E-2</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>219</v>
       </c>
       <c r="K6" s="64">
         <f>I5/G4</f>
-        <v>15.99322747437874</v>
+        <v>20.933463131000249</v>
       </c>
       <c r="L6" s="65" t="s">
         <v>220</v>
@@ -9624,14 +9629,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66">
         <f>O20/F12</f>
-        <v>35.846156488888887</v>
+        <v>45.771185185185182</v>
       </c>
       <c r="B7" s="67" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="68">
         <f>F15/A3</f>
-        <v>3.4509614368850874E-2</v>
+        <v>2.7026545894149805E-2</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>223</v>
@@ -9658,7 +9663,7 @@
       </c>
       <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>-0.36635390355076303</v>
+        <v>-0.35638852787086084</v>
       </c>
       <c r="L7" s="75" t="s">
         <v>226</v>
@@ -9917,53 +9922,53 @@
       </c>
       <c r="L13" s="77"/>
       <c r="M13" s="77"/>
-      <c r="N13" s="123" t="s">
+      <c r="N13" s="122" t="s">
         <v>235</v>
       </c>
-      <c r="O13" s="124"/>
+      <c r="O13" s="123"/>
       <c r="P13" s="49"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="126" t="s">
         <v>236</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="97">
         <f>B12/B10</f>
         <v>-0.30121137954774918</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="97">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>-0.36547326994154922</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="97">
         <f t="shared" si="2"/>
         <v>-0.47959885675796876</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="97">
         <f t="shared" si="2"/>
         <v>-0.66214673506711608</v>
       </c>
-      <c r="F14" s="99">
+      <c r="F14" s="98">
         <f t="shared" si="2"/>
         <v>0.12459621596677434</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="97">
         <f t="shared" si="2"/>
         <v>0.2056792018419033</v>
       </c>
-      <c r="H14" s="98">
+      <c r="H14" s="97">
         <f t="shared" si="2"/>
         <v>0.21548930654569021</v>
       </c>
-      <c r="I14" s="98">
+      <c r="I14" s="97">
         <f t="shared" si="2"/>
         <v>0.17022719565954561</v>
       </c>
-      <c r="J14" s="100">
+      <c r="J14" s="99">
         <f t="shared" si="2"/>
         <v>0.21304347826086956</v>
       </c>
-      <c r="K14" s="100"/>
+      <c r="K14" s="99"/>
       <c r="L14" s="77"/>
       <c r="M14" s="77"/>
       <c r="N14" s="61" t="s">
@@ -9971,7 +9976,7 @@
       </c>
       <c r="O14" s="94">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
       <c r="P14" s="49"/>
     </row>
@@ -10014,14 +10019,14 @@
       <c r="N15" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="O15" s="101">
+      <c r="O15" s="100">
         <f>1.33</f>
         <v>1.33</v>
       </c>
       <c r="P15" s="49"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="102"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="91"/>
       <c r="C16" s="91">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -10070,85 +10075,85 @@
       <c r="P16" s="49"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="98">
+      <c r="B17" s="97">
         <f>B15/B10</f>
         <v>-0.17529472349426611</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="97">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>-2.7177339486953764E-2</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="97">
         <f t="shared" si="4"/>
         <v>-0.13812103453678706</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E17" s="99">
         <f t="shared" si="4"/>
         <v>-8.3800854622206378E-2</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="97">
         <f t="shared" si="4"/>
         <v>0.15413013382556529</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="97">
         <f t="shared" si="4"/>
         <v>0.15349194167306215</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="97">
         <f t="shared" si="4"/>
         <v>0.14581983149708361</v>
       </c>
-      <c r="I17" s="98">
+      <c r="I17" s="97">
         <f t="shared" si="4"/>
         <v>0.17802644964394709</v>
       </c>
-      <c r="J17" s="100">
+      <c r="J17" s="99">
         <f t="shared" si="4"/>
         <v>0.18819875776397516</v>
       </c>
-      <c r="K17" s="100"/>
+      <c r="K17" s="99"/>
       <c r="L17" s="77"/>
       <c r="M17" s="77"/>
-      <c r="N17" s="103" t="s">
+      <c r="N17" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="O17" s="104">
+      <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6843600000000002E-2</v>
+        <v>9.762570000000001E-2</v>
       </c>
       <c r="P17" s="49"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="106">
+      <c r="B18" s="105">
         <v>-0.28687127295251974</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="105">
         <v>-9.5374470743388631E-2</v>
       </c>
-      <c r="D18" s="106">
+      <c r="D18" s="105">
         <v>-9.4631634380664562E-2</v>
       </c>
-      <c r="E18" s="106">
+      <c r="E18" s="105">
         <v>-0.10240350239115967</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="109"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="108"/>
       <c r="L18" s="77"/>
       <c r="M18" s="77"/>
-      <c r="N18" s="123" t="s">
+      <c r="N18" s="122" t="s">
         <v>241</v>
       </c>
-      <c r="O18" s="124"/>
+      <c r="O18" s="123"/>
       <c r="P18" s="49"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -10170,17 +10175,17 @@
       <c r="N19" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="O19" s="110">
+      <c r="O19" s="109">
         <f>O6+O7</f>
         <v>2972736000</v>
       </c>
       <c r="P19" s="49"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
       <c r="F20" s="77"/>
       <c r="G20" s="77"/>
       <c r="H20" s="77"/>
@@ -10192,18 +10197,18 @@
       <c r="N20" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="O20" s="110">
+      <c r="O20" s="109">
         <f>A3</f>
-        <v>9678462252</v>
+        <v>12358220000</v>
       </c>
       <c r="P20" s="49"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="114" t="str" cm="1">
+      <c r="A21" s="124" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="114"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="125" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2009</v>
@@ -10220,21 +10225,21 @@
       <c r="N21" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="O21" s="110">
+      <c r="O21" s="109">
         <f>O19+O20</f>
-        <v>12651198252</v>
+        <v>15330956000</v>
       </c>
       <c r="P21" s="49"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="114" t="str" cm="1">
+      <c r="A22" s="113" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Unity Software Inc. (Unity) provides a platform for content creators. The Company's platform provides real-time three-dimensional (RT3D) development tools and services for creating interactive, two-dimensional (2D), 3D, augmented and virtual reality experiences across all major platforms and device endpoints. The Company has two complementary and interconnected solutions: Create Solutions and Grow Solutions. Create Solutions has a set of tools for the development of real-time 2D and 3D content. It is designed with creators in mind, the tools are used by artists, designers, and developers across a range of industries ranging from games to aerospace, film to retail, medical to manufacturing, and others. Grow Solutions offer customers to engage their user base and monetize their content from 2D puzzle games to multiplayer, multi-platform games, or other 3D interactive content. It serves industries, including gaming, film, retail, automotive, architecture, engineering, and construction.</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
       <c r="H22" s="77"/>
@@ -10246,18 +10251,18 @@
       <c r="N22" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="O22" s="112">
+      <c r="O22" s="111">
         <f>(O19/O21)</f>
-        <v>0.23497663547641004</v>
+        <v>0.19390415053046919</v>
       </c>
       <c r="P22" s="49"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
       <c r="H23" s="77"/>
@@ -10266,21 +10271,21 @@
       <c r="K23" s="77"/>
       <c r="L23" s="77"/>
       <c r="M23" s="77"/>
-      <c r="N23" s="103" t="s">
+      <c r="N23" s="102" t="s">
         <v>245</v>
       </c>
-      <c r="O23" s="113">
+      <c r="O23" s="112">
         <f>O20/O21</f>
-        <v>0.76502336452358999</v>
+        <v>0.80609584946953083</v>
       </c>
       <c r="P23" s="49"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="114"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
       <c r="H24" s="77"/>
@@ -10289,18 +10294,18 @@
       <c r="K24" s="77"/>
       <c r="L24" s="77"/>
       <c r="M24" s="77"/>
-      <c r="N24" s="115" t="s">
+      <c r="N24" s="114" t="s">
         <v>246</v>
       </c>
-      <c r="O24" s="116"/>
+      <c r="O24" s="115"/>
       <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
       <c r="H25" s="77"/>
@@ -10309,19 +10314,19 @@
       <c r="K25" s="77"/>
       <c r="L25" s="77"/>
       <c r="M25" s="77"/>
-      <c r="N25" s="117">
+      <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.2889934557467811E-2</v>
-      </c>
-      <c r="O25" s="118"/>
+        <v>7.7707336970247912E-2</v>
+      </c>
+      <c r="O25" s="117"/>
       <c r="P25" s="49"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
       <c r="H26" s="77"/>
@@ -10335,11 +10340,11 @@
       <c r="P26" s="49"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="77"/>
       <c r="G27" s="77"/>
       <c r="H27" s="77"/>
@@ -10353,11 +10358,11 @@
       <c r="P27" s="49"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="114"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="77"/>
       <c r="G28" s="77"/>
       <c r="H28" s="77"/>
@@ -10371,11 +10376,11 @@
       <c r="P28" s="49"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="114"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
       <c r="F29" s="77"/>
       <c r="G29" s="77"/>
       <c r="H29" s="77"/>
@@ -10389,11 +10394,11 @@
       <c r="P29" s="49"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="114"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
       <c r="H30" s="77"/>

--- a/Technology/Software/Unity Software.xlsx
+++ b/Technology/Software/Unity Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A7ED9D-6CAA-8446-858A-CB04CBE34197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF5C580-D6FD-5441-858C-93323D192C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1679,6 +1679,9 @@
     <xf numFmtId="10" fontId="20" fillId="12" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -1718,9 +1721,6 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1756,6 +1756,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1775,7 +1777,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1788,6 +1790,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1915,11 +1919,11 @@
     <v>Powered by Refinitiv</v>
     <v>50.08</v>
     <v>22.2</v>
-    <v>2.5470000000000002</v>
-    <v>3.0150000000000001</v>
-    <v>0.10216900000000001</v>
-    <v>0.08</v>
-    <v>2.4599999999999999E-3</v>
+    <v>2.5249999999999999</v>
+    <v>0.8</v>
+    <v>2.5078E-2</v>
+    <v>-0.03</v>
+    <v>-9.1740000000000007E-4</v>
     <v>USD</v>
     <v>Unity Software Inc. (Unity) provides a platform for content creators. The Company's platform provides real-time three-dimensional (RT3D) development tools and services for creating interactive, two-dimensional (2D), 3D, augmented and virtual reality experiences across all major platforms and device endpoints. The Company has two complementary and interconnected solutions: Create Solutions and Grow Solutions. Create Solutions has a set of tools for the development of real-time 2D and 3D content. It is designed with creators in mind, the tools are used by artists, designers, and developers across a range of industries ranging from games to aerospace, film to retail, medical to manufacturing, and others. Grow Solutions offer customers to engage their user base and monetize their content from 2D puzzle games to multiplayer, multi-platform games, or other 3D interactive content. It serves industries, including gaming, film, retail, automotive, architecture, engineering, and construction.</v>
     <v>7703</v>
@@ -1927,24 +1931,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>30 - 3Rd Street, SAN FRANCISCO, CA, 94103 US</v>
-    <v>32.700000000000003</v>
+    <v>33.729100000000003</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.04126600625</v>
+    <v>45269.041256608594</v>
     <v>0</v>
-    <v>29.254999999999999</v>
-    <v>12358220000</v>
+    <v>31.610600000000002</v>
+    <v>12426621300</v>
     <v>Unity Software Inc</v>
     <v>Unity Software Inc</v>
-    <v>29.35</v>
-    <v>29.51</v>
-    <v>32.524999999999999</v>
-    <v>32.6</v>
+    <v>31.73</v>
+    <v>31.9</v>
+    <v>32.700000000000003</v>
+    <v>32.67</v>
     <v>380019000</v>
     <v>U</v>
     <v>Unity Software Inc (XNYS:U)</v>
-    <v>17963338</v>
-    <v>12957825</v>
+    <v>13413568</v>
+    <v>13870637</v>
     <v>2009</v>
   </rv>
   <rv s="2">
@@ -2106,9 +2110,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2552,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9371,10 +9375,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F077263A-285C-CF41-AA8F-B2350D5A8C18}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9382,48 +9386,48 @@
     <col min="1" max="19" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="e" vm="1">
+    <row r="1" spans="1:18" s="120" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="119" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-    </row>
-    <row r="2" spans="1:16" s="119" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+    </row>
+    <row r="2" spans="1:18" s="120" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="40" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>12358220000</v>
+        <v>12426621300</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>195</v>
@@ -9451,7 +9455,7 @@
       </c>
       <c r="I3" s="45">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>11784886805.239752</v>
+        <v>11676793418.727867</v>
       </c>
       <c r="J3" s="46" t="s">
         <v>199</v>
@@ -9464,13 +9468,15 @@
         <v>200</v>
       </c>
       <c r="M3" s="49"/>
-      <c r="N3" s="120" t="s">
+      <c r="N3" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="O3" s="121"/>
+      <c r="O3" s="122"/>
       <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50">
         <f>Financials!G56-Financials!G96-Financials!G105</f>
         <v>-1331810000</v>
@@ -9501,26 +9507,28 @@
       </c>
       <c r="I4" s="55">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>9926119320.5285244</v>
+        <v>9831023839.5378914</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>206</v>
       </c>
       <c r="K4" s="56" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>0.10216900000000001</v>
+        <v>2.5078E-2</v>
       </c>
       <c r="L4" s="57" t="s">
         <v>207</v>
       </c>
       <c r="M4" s="49"/>
-      <c r="N4" s="122" t="s">
+      <c r="N4" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="O4" s="123"/>
+      <c r="O4" s="124"/>
       <c r="P4" s="49"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>380019000</v>
@@ -9551,14 +9559,14 @@
       </c>
       <c r="I5" s="55">
         <f>I4+G5-G6</f>
-        <v>8594309320.5285244</v>
+        <v>8499213839.5378914</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>213</v>
       </c>
       <c r="K5" s="59" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>32.524999999999999</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>214</v>
@@ -9572,11 +9580,13 @@
         <v>-14544000</v>
       </c>
       <c r="P5" s="49"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="63">
         <f>O20/F10</f>
-        <v>5.7029164743885552</v>
+        <v>5.7344814490078448</v>
       </c>
       <c r="B6" s="51" t="s">
         <v>216</v>
@@ -9604,14 +9614,14 @@
       </c>
       <c r="I6" s="56">
         <f>N25</f>
-        <v>7.7707336970247912E-2</v>
+        <v>7.8195254700983777E-2</v>
       </c>
       <c r="J6" s="53" t="s">
         <v>219</v>
       </c>
       <c r="K6" s="64">
         <f>I5/G4</f>
-        <v>20.933463131000249</v>
+        <v>20.701835705107257</v>
       </c>
       <c r="L6" s="65" t="s">
         <v>220</v>
@@ -9625,18 +9635,20 @@
         <v>140792000</v>
       </c>
       <c r="P6" s="49"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66">
         <f>O20/F12</f>
-        <v>45.771185185185182</v>
+        <v>46.024523333333335</v>
       </c>
       <c r="B7" s="67" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="68">
         <f>F15/A3</f>
-        <v>2.7026545894149805E-2</v>
+        <v>2.6877780527519577E-2</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>223</v>
@@ -9663,7 +9675,7 @@
       </c>
       <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>-0.35638852787086084</v>
+        <v>-0.3669163392933561</v>
       </c>
       <c r="L7" s="75" t="s">
         <v>226</v>
@@ -9677,8 +9689,10 @@
         <v>2831944000</v>
       </c>
       <c r="P7" s="49"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="76"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -9700,8 +9714,10 @@
         <v>-4.8924627010269329E-3</v>
       </c>
       <c r="P8" s="49"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="80"/>
       <c r="B9" s="81">
         <v>2019</v>
@@ -9741,8 +9757,10 @@
         <v>39524000</v>
       </c>
       <c r="P9" s="49"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="86" t="s">
         <v>229</v>
       </c>
@@ -9785,8 +9803,10 @@
         <v>-945278000</v>
       </c>
       <c r="P10" s="49"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="90"/>
       <c r="B11" s="91"/>
       <c r="C11" s="91">
@@ -9835,8 +9855,10 @@
         <v>-4.1812038363317455E-2</v>
       </c>
       <c r="P11" s="49"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="86" t="s">
         <v>134</v>
       </c>
@@ -9880,8 +9902,10 @@
         <v>-5.0970265391733702E-3</v>
       </c>
       <c r="P12" s="49"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="90"/>
       <c r="B13" s="91"/>
       <c r="C13" s="91">
@@ -9922,14 +9946,16 @@
       </c>
       <c r="L13" s="77"/>
       <c r="M13" s="77"/>
-      <c r="N13" s="122" t="s">
+      <c r="N13" s="123" t="s">
         <v>235</v>
       </c>
-      <c r="O13" s="123"/>
+      <c r="O13" s="124"/>
       <c r="P13" s="49"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="126" t="s">
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="113" t="s">
         <v>236</v>
       </c>
       <c r="B14" s="97">
@@ -9976,11 +10002,13 @@
       </c>
       <c r="O14" s="94">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="49"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="86" t="s">
         <v>177</v>
       </c>
@@ -10024,8 +10052,10 @@
         <v>1.33</v>
       </c>
       <c r="P15" s="49"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="101"/>
       <c r="B16" s="91"/>
       <c r="C16" s="91">
@@ -10073,9 +10103,11 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="49"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="126" t="s">
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="113" t="s">
         <v>192</v>
       </c>
       <c r="B17" s="97">
@@ -10122,11 +10154,13 @@
       </c>
       <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="49"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="104" t="s">
         <v>188</v>
       </c>
@@ -10150,13 +10184,15 @@
       <c r="K18" s="108"/>
       <c r="L18" s="77"/>
       <c r="M18" s="77"/>
-      <c r="N18" s="122" t="s">
+      <c r="N18" s="123" t="s">
         <v>241</v>
       </c>
-      <c r="O18" s="123"/>
+      <c r="O18" s="124"/>
       <c r="P18" s="49"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="77"/>
       <c r="B19" s="77"/>
       <c r="C19" s="77"/>
@@ -10180,8 +10216,10 @@
         <v>2972736000</v>
       </c>
       <c r="P19" s="49"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="110"/>
       <c r="C20" s="110"/>
       <c r="D20" s="110"/>
@@ -10199,22 +10237,24 @@
       </c>
       <c r="O20" s="109">
         <f>A3</f>
-        <v>12358220000</v>
+        <v>12426621300</v>
       </c>
       <c r="P20" s="49"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="124" t="str" cm="1">
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="125" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="125" cm="1">
+      <c r="B21" s="125"/>
+      <c r="C21" s="126" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2009</v>
       </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
       <c r="H21" s="77"/>
@@ -10227,19 +10267,21 @@
       </c>
       <c r="O21" s="109">
         <f>O19+O20</f>
-        <v>15330956000</v>
+        <v>15399357300</v>
       </c>
       <c r="P21" s="49"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113" t="str" cm="1">
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="114" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Unity Software Inc. (Unity) provides a platform for content creators. The Company's platform provides real-time three-dimensional (RT3D) development tools and services for creating interactive, two-dimensional (2D), 3D, augmented and virtual reality experiences across all major platforms and device endpoints. The Company has two complementary and interconnected solutions: Create Solutions and Grow Solutions. Create Solutions has a set of tools for the development of real-time 2D and 3D content. It is designed with creators in mind, the tools are used by artists, designers, and developers across a range of industries ranging from games to aerospace, film to retail, medical to manufacturing, and others. Grow Solutions offer customers to engage their user base and monetize their content from 2D puzzle games to multiplayer, multi-platform games, or other 3D interactive content. It serves industries, including gaming, film, retail, automotive, architecture, engineering, and construction.</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
       <c r="H22" s="77"/>
@@ -10253,16 +10295,18 @@
       </c>
       <c r="O22" s="111">
         <f>(O19/O21)</f>
-        <v>0.19390415053046919</v>
+        <v>0.19304286160046433</v>
       </c>
       <c r="P22" s="49"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="77"/>
       <c r="G23" s="77"/>
       <c r="H23" s="77"/>
@@ -10276,16 +10320,18 @@
       </c>
       <c r="O23" s="112">
         <f>O20/O21</f>
-        <v>0.80609584946953083</v>
+        <v>0.80695713839953565</v>
       </c>
       <c r="P23" s="49"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="77"/>
       <c r="G24" s="77"/>
       <c r="H24" s="77"/>
@@ -10294,18 +10340,20 @@
       <c r="K24" s="77"/>
       <c r="L24" s="77"/>
       <c r="M24" s="77"/>
-      <c r="N24" s="114" t="s">
+      <c r="N24" s="115" t="s">
         <v>246</v>
       </c>
-      <c r="O24" s="115"/>
+      <c r="O24" s="116"/>
       <c r="P24" s="49"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
       <c r="H25" s="77"/>
@@ -10314,19 +10362,21 @@
       <c r="K25" s="77"/>
       <c r="L25" s="77"/>
       <c r="M25" s="77"/>
-      <c r="N25" s="116">
+      <c r="N25" s="117">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.7707336970247912E-2</v>
-      </c>
-      <c r="O25" s="117"/>
+        <v>7.8195254700983777E-2</v>
+      </c>
+      <c r="O25" s="118"/>
       <c r="P25" s="49"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
       <c r="H26" s="77"/>
@@ -10338,13 +10388,15 @@
       <c r="N26" s="77"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="114"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
       <c r="F27" s="77"/>
       <c r="G27" s="77"/>
       <c r="H27" s="77"/>
@@ -10356,13 +10408,15 @@
       <c r="N27" s="77"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="114"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
       <c r="F28" s="77"/>
       <c r="G28" s="77"/>
       <c r="H28" s="77"/>
@@ -10374,13 +10428,15 @@
       <c r="N28" s="77"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="77"/>
       <c r="G29" s="77"/>
       <c r="H29" s="77"/>
@@ -10392,13 +10448,15 @@
       <c r="N29" s="77"/>
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="114"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="77"/>
       <c r="G30" s="77"/>
       <c r="H30" s="77"/>
@@ -10410,8 +10468,10 @@
       <c r="N30" s="77"/>
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
-    </row>
-    <row r="31" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+    </row>
+    <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="49"/>
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
@@ -10428,8 +10488,10 @@
       <c r="N31" s="49"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
-    </row>
-    <row r="32" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+    </row>
+    <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="49"/>
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
@@ -10446,8 +10508,10 @@
       <c r="N32" s="49"/>
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
-    </row>
-    <row r="33" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+    </row>
+    <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="77"/>
       <c r="B33" s="77"/>
       <c r="C33" s="77"/>
@@ -10464,8 +10528,10 @@
       <c r="N33" s="77"/>
       <c r="O33" s="77"/>
       <c r="P33" s="77"/>
-    </row>
-    <row r="34" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+    </row>
+    <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="77"/>
       <c r="B34" s="77"/>
       <c r="C34" s="77"/>
@@ -10482,8 +10548,10 @@
       <c r="N34" s="77"/>
       <c r="O34" s="77"/>
       <c r="P34" s="77"/>
-    </row>
-    <row r="35" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
+    </row>
+    <row r="35" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="77"/>
       <c r="B35" s="77"/>
       <c r="C35" s="77"/>
@@ -10500,8 +10568,10 @@
       <c r="N35" s="77"/>
       <c r="O35" s="77"/>
       <c r="P35" s="77"/>
-    </row>
-    <row r="36" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
+    </row>
+    <row r="36" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="77"/>
       <c r="B36" s="77"/>
       <c r="C36" s="77"/>
@@ -10518,8 +10588,10 @@
       <c r="N36" s="77"/>
       <c r="O36" s="77"/>
       <c r="P36" s="77"/>
-    </row>
-    <row r="37" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q36" s="77"/>
+      <c r="R36" s="77"/>
+    </row>
+    <row r="37" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="77"/>
       <c r="B37" s="77"/>
       <c r="C37" s="77"/>
@@ -10536,8 +10608,10 @@
       <c r="N37" s="77"/>
       <c r="O37" s="77"/>
       <c r="P37" s="77"/>
-    </row>
-    <row r="38" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77"/>
+    </row>
+    <row r="38" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="77"/>
       <c r="B38" s="77"/>
       <c r="C38" s="77"/>
@@ -10554,8 +10628,10 @@
       <c r="N38" s="77"/>
       <c r="O38" s="77"/>
       <c r="P38" s="77"/>
-    </row>
-    <row r="39" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q38" s="77"/>
+      <c r="R38" s="77"/>
+    </row>
+    <row r="39" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="77"/>
       <c r="B39" s="77"/>
       <c r="C39" s="77"/>
@@ -10572,8 +10648,10 @@
       <c r="N39" s="77"/>
       <c r="O39" s="77"/>
       <c r="P39" s="77"/>
-    </row>
-    <row r="40" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+    </row>
+    <row r="40" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="77"/>
       <c r="B40" s="77"/>
       <c r="C40" s="77"/>
@@ -10590,8 +10668,10 @@
       <c r="N40" s="77"/>
       <c r="O40" s="77"/>
       <c r="P40" s="77"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="77"/>
+      <c r="R40" s="77"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="77"/>
       <c r="B41" s="77"/>
       <c r="C41" s="77"/>
@@ -10608,8 +10688,10 @@
       <c r="N41" s="77"/>
       <c r="O41" s="77"/>
       <c r="P41" s="77"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="77"/>
       <c r="B42" s="77"/>
       <c r="C42" s="77"/>
@@ -10626,8 +10708,10 @@
       <c r="N42" s="77"/>
       <c r="O42" s="77"/>
       <c r="P42" s="77"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="77"/>
       <c r="B43" s="77"/>
       <c r="C43" s="77"/>
@@ -10644,8 +10728,10 @@
       <c r="N43" s="77"/>
       <c r="O43" s="77"/>
       <c r="P43" s="77"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="77"/>
       <c r="B44" s="77"/>
       <c r="C44" s="77"/>
@@ -10662,8 +10748,10 @@
       <c r="N44" s="77"/>
       <c r="O44" s="77"/>
       <c r="P44" s="77"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="77"/>
       <c r="B45" s="77"/>
       <c r="C45" s="77"/>
@@ -10680,8 +10768,10 @@
       <c r="N45" s="77"/>
       <c r="O45" s="77"/>
       <c r="P45" s="77"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="77"/>
+      <c r="R45" s="77"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="77"/>
       <c r="B46" s="77"/>
       <c r="C46" s="77"/>
@@ -10698,8 +10788,10 @@
       <c r="N46" s="77"/>
       <c r="O46" s="77"/>
       <c r="P46" s="77"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="77"/>
+      <c r="R46" s="77"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="77"/>
       <c r="B47" s="77"/>
       <c r="C47" s="77"/>
@@ -10716,8 +10808,10 @@
       <c r="N47" s="77"/>
       <c r="O47" s="77"/>
       <c r="P47" s="77"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="77"/>
+      <c r="R47" s="77"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="77"/>
       <c r="B48" s="77"/>
       <c r="C48" s="77"/>
@@ -10734,8 +10828,10 @@
       <c r="N48" s="77"/>
       <c r="O48" s="77"/>
       <c r="P48" s="77"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="77"/>
+      <c r="R48" s="77"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="77"/>
       <c r="B49" s="77"/>
       <c r="C49" s="77"/>
@@ -10752,8 +10848,10 @@
       <c r="N49" s="77"/>
       <c r="O49" s="77"/>
       <c r="P49" s="77"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="77"/>
+      <c r="R49" s="77"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="77"/>
       <c r="B50" s="77"/>
       <c r="C50" s="77"/>
@@ -10770,8 +10868,10 @@
       <c r="N50" s="77"/>
       <c r="O50" s="77"/>
       <c r="P50" s="77"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="77"/>
+      <c r="R50" s="77"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="77"/>
       <c r="B51" s="77"/>
       <c r="C51" s="77"/>
@@ -10788,8 +10888,10 @@
       <c r="N51" s="77"/>
       <c r="O51" s="77"/>
       <c r="P51" s="77"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="77"/>
+      <c r="R51" s="77"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="77"/>
       <c r="B52" s="77"/>
       <c r="C52" s="77"/>
@@ -10806,8 +10908,10 @@
       <c r="N52" s="77"/>
       <c r="O52" s="77"/>
       <c r="P52" s="77"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="77"/>
+      <c r="R52" s="77"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="77"/>
       <c r="B53" s="77"/>
       <c r="C53" s="77"/>
@@ -10824,8 +10928,10 @@
       <c r="N53" s="77"/>
       <c r="O53" s="77"/>
       <c r="P53" s="77"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="77"/>
+      <c r="R53" s="77"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="77"/>
       <c r="B54" s="77"/>
       <c r="C54" s="77"/>
@@ -10842,8 +10948,10 @@
       <c r="N54" s="77"/>
       <c r="O54" s="77"/>
       <c r="P54" s="77"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="77"/>
+      <c r="R54" s="77"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="77"/>
       <c r="B55" s="77"/>
       <c r="C55" s="77"/>
@@ -10860,8 +10968,10 @@
       <c r="N55" s="77"/>
       <c r="O55" s="77"/>
       <c r="P55" s="77"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="77"/>
+      <c r="R55" s="77"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="77"/>
       <c r="B56" s="77"/>
       <c r="C56" s="77"/>
@@ -10878,8 +10988,10 @@
       <c r="N56" s="77"/>
       <c r="O56" s="77"/>
       <c r="P56" s="77"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="77"/>
+      <c r="R56" s="77"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="77"/>
       <c r="B57" s="77"/>
       <c r="C57" s="77"/>
@@ -10896,8 +11008,10 @@
       <c r="N57" s="77"/>
       <c r="O57" s="77"/>
       <c r="P57" s="77"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="77"/>
+      <c r="R57" s="77"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="77"/>
       <c r="B58" s="77"/>
       <c r="C58" s="77"/>
@@ -10914,8 +11028,10 @@
       <c r="N58" s="77"/>
       <c r="O58" s="77"/>
       <c r="P58" s="77"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="77"/>
+      <c r="R58" s="77"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="77"/>
       <c r="B59" s="77"/>
       <c r="C59" s="77"/>
@@ -10932,8 +11048,10 @@
       <c r="N59" s="77"/>
       <c r="O59" s="77"/>
       <c r="P59" s="77"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="77"/>
+      <c r="R59" s="77"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="77"/>
       <c r="B60" s="77"/>
       <c r="C60" s="77"/>
@@ -10950,8 +11068,10 @@
       <c r="N60" s="77"/>
       <c r="O60" s="77"/>
       <c r="P60" s="77"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="77"/>
+      <c r="R60" s="77"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="77"/>
       <c r="B61" s="77"/>
       <c r="C61" s="77"/>
@@ -10968,16 +11088,20 @@
       <c r="N61" s="77"/>
       <c r="O61" s="77"/>
       <c r="P61" s="77"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="77"/>
+      <c r="R61" s="77"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O62" s="49"/>
       <c r="P62" s="49"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O63" s="49"/>
       <c r="P63" s="49"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="O64" s="49"/>
       <c r="P64" s="49"/>
     </row>
